--- a/bin/Resoures/WebElementLocator.xlsx
+++ b/bin/Resoures/WebElementLocator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\java workspace\Web_Auto\src\Resoures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAD975E-C014-4F66-81C8-BB7C8DCA27ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23205469-2C17-4A10-A0B1-D1F9C1098715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
@@ -45,25 +45,37 @@
     <t>Locator</t>
   </si>
   <si>
-    <t>/html/body/div[3]/div[3]/div[1]/a[12]</t>
-  </si>
-  <si>
-    <t>Page14</t>
-  </si>
-  <si>
     <t>https://projecteuler.info/</t>
   </si>
   <si>
     <t>LastTableRow</t>
   </si>
   <si>
-    <t>/html/body/div[3]/div[3]/table/tbody/tr[last()]/td[1]</t>
-  </si>
-  <si>
     <t>LastTableRowAnchor</t>
   </si>
   <si>
-    <t>/html/body/div[3]/div[3]/table/tbody/tr[last()]/td[2]/a[2]</t>
+    <t>/html/body/div[3]/div[3]/table/tbody/tr[%s]/td[1]</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[3]/table/tbody/tr[%s]/td[2]/a[2]</t>
+  </si>
+  <si>
+    <t>Pagenation</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[3]/div[1]/a[%s]</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[3]/h2</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/div[3]/div[3]/p[1]</t>
   </si>
 </sst>
 </file>
@@ -392,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E2" sqref="E2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,16 +441,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -446,16 +458,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -463,23 +475,59 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{BEEA3A3A-1BB6-4831-A773-B804CA30AC21}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{9E076C84-202B-4A7B-93F5-A64816D99DCC}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{6EBE97C0-4573-4726-BDA7-61961BD90276}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{C1F190A1-4869-4592-89D0-2A5A3AE71329}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{91D717AF-78AC-4299-9200-3FC4EA74987F}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{EBDB47D7-41B1-409E-8696-60DBF15E4C7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bin/Resoures/WebElementLocator.xlsx
+++ b/bin/Resoures/WebElementLocator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\java workspace\Web_Auto\src\Resoures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23205469-2C17-4A10-A0B1-D1F9C1098715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42452022-D88E-4D6C-89D5-5DC702D7CE07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,7 +75,7 @@
     <t>content</t>
   </si>
   <si>
-    <t>/html/body/div[3]/div[3]/div[3]/p[1]</t>
+    <t>/html/body/div[3]/div[3]/div[3]</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
